--- a/resources/PlaceOrder.xlsx
+++ b/resources/PlaceOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\eclipse-workspace\FirstTestNG\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2975B3F-D2A0-48CC-AAB8-0C84ECB68A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0A15AE-79E1-42B0-B896-7A03B7F93573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,12 +79,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,13 +113,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +432,7 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -419,48 +440,145 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>5</v>
       </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
